--- a/results/Temp Results/lmer_multi_comp_basin_season_temp.xlsx
+++ b/results/Temp Results/lmer_multi_comp_basin_season_temp.xlsx
@@ -149,31 +149,31 @@
     <t xml:space="preserve">East Spring / West Winter</t>
   </si>
   <si>
+    <t xml:space="preserve">North Spring / East Winter</t>
+  </si>
+  <si>
     <t xml:space="preserve">West Spring / North Summer</t>
   </si>
   <si>
-    <t xml:space="preserve">North Spring / East Winter</t>
-  </si>
-  <si>
     <t xml:space="preserve">North Spring / East Fall</t>
   </si>
   <si>
+    <t xml:space="preserve">North Spring / West Fall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Spring / West Winter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Spring / North Fall</t>
+  </si>
+  <si>
     <t xml:space="preserve">East Spring / North Summer</t>
   </si>
   <si>
-    <t xml:space="preserve">North Spring / West Fall</t>
-  </si>
-  <si>
     <t xml:space="preserve">East Spring / North Fall</t>
   </si>
   <si>
-    <t xml:space="preserve">North Spring / West Winter</t>
-  </si>
-  <si>
     <t xml:space="preserve">West Summer / West Fall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Spring / North Fall</t>
   </si>
   <si>
     <t xml:space="preserve">East Summer / East Fall</t>
@@ -611,22 +611,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.490271996681185</v>
+        <v>0.490272300667621</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00661406458768883</v>
-      </c>
-      <c r="F2" t="n">
-        <v>16729</v>
+        <v>0.00661407606964603</v>
+      </c>
+      <c r="F2" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>-52.8364059754128</v>
+        <v>-52.8363010519315</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0000000289834218847318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -640,22 +640,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.471652682198088</v>
+        <v>0.471654230548569</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0217172928433754</v>
-      </c>
-      <c r="F3" t="n">
-        <v>16729</v>
+        <v>0.0217187118894262</v>
+      </c>
+      <c r="F3" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>-16.321225902899</v>
+        <v>-16.3201417999509</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0000000289834218847318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -669,22 +669,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.530352997256128</v>
+        <v>0.530356043542201</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00710540507410241</v>
-      </c>
-      <c r="F4" t="n">
-        <v>16729</v>
+        <v>0.00710544528301189</v>
+      </c>
+      <c r="F4" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>-47.3381146306888</v>
+        <v>-47.3376899259618</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0000000289834218847318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -698,22 +698,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.528608657067377</v>
+        <v>0.528607992551299</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0243041340200743</v>
-      </c>
-      <c r="F5" t="n">
-        <v>16729</v>
+        <v>0.0243056158976869</v>
+      </c>
+      <c r="F5" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>-13.8656109198603</v>
+        <v>-13.8647754645311</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0000000289834218847318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.63851759190278</v>
+        <v>1.63851012378194</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0225013268811588</v>
-      </c>
-      <c r="F6" t="n">
-        <v>16729</v>
+        <v>0.0225012764675336</v>
+      </c>
+      <c r="F6" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>35.9572909301926</v>
+        <v>35.9568757064514</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0000000289834218847318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -756,22 +756,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.522831115944516</v>
+        <v>0.522831068445362</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0240522224970726</v>
-      </c>
-      <c r="F7" t="n">
-        <v>16729</v>
+        <v>0.0240537150886794</v>
+      </c>
+      <c r="F7" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-14.0965890285389</v>
+        <v>-14.0957149949734</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0000000289834218847318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.50297528686348</v>
+        <v>0.502976580481266</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00613512628609516</v>
-      </c>
-      <c r="F8" t="n">
-        <v>16729</v>
+        <v>0.00613514150729949</v>
+      </c>
+      <c r="F8" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>-56.339798754511</v>
+        <v>-56.3395930238899</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0000000289834218847318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -814,22 +814,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.565573908518078</v>
+        <v>0.565576755048231</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0259770136800628</v>
-      </c>
-      <c r="F9" t="n">
-        <v>16729</v>
+        <v>0.0259787609583072</v>
+      </c>
+      <c r="F9" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>-12.4082259773798</v>
+        <v>-12.4073443001349</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0000000289834218847318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -843,22 +843,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.563713726142489</v>
+        <v>0.563712616760129</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00689321057280851</v>
-      </c>
-      <c r="F10" t="n">
-        <v>16729</v>
+        <v>0.00689320361719696</v>
+      </c>
+      <c r="F10" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>-46.8759263840571</v>
+        <v>-46.8760423713961</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0000000289834218847318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -872,22 +872,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.74733206642093</v>
+        <v>1.74732286019199</v>
       </c>
       <c r="E11" t="n">
-        <v>0.080689642958235</v>
-      </c>
-      <c r="F11" t="n">
-        <v>16729</v>
+        <v>0.0806942081055482</v>
+      </c>
+      <c r="F11" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>12.085426041257</v>
+        <v>12.0845645685233</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0000000289834218847318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1.60406177008787</v>
+        <v>1.60405394220648</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0205415189051791</v>
-      </c>
-      <c r="F12" t="n">
-        <v>16729</v>
+        <v>0.0205414532702054</v>
+      </c>
+      <c r="F12" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>36.8999867206903</v>
+        <v>36.8995434749323</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0000000289834218847318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -930,22 +930,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.516856296349304</v>
+        <v>0.516874333595707</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0293259599474787</v>
-      </c>
-      <c r="F13" t="n">
-        <v>16729</v>
+        <v>0.0293288111805972</v>
+      </c>
+      <c r="F13" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>-11.6320214008355</v>
+        <v>-11.6306814639361</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0000000289834218847318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -959,22 +959,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.497227376098012</v>
+        <v>0.49724605238847</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0271512615525717</v>
-      </c>
-      <c r="F14" t="n">
-        <v>16729</v>
+        <v>0.0271539296234805</v>
+      </c>
+      <c r="F14" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>-12.7955997689623</v>
+        <v>-12.794135268674</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0000000289834218847318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.584701278135644</v>
+        <v>0.584707818781741</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0104196031949132</v>
-      </c>
-      <c r="F15" t="n">
-        <v>16729</v>
+        <v>0.0104197279973997</v>
+      </c>
+      <c r="F15" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>-30.1146204438916</v>
+        <v>-30.1139688916622</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0000000289834218847318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1017,22 +1017,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.594504087432432</v>
+        <v>0.59450678698566</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0101924882747722</v>
-      </c>
-      <c r="F16" t="n">
-        <v>16729</v>
+        <v>0.0101925582216872</v>
+      </c>
+      <c r="F16" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>-30.3320030830905</v>
+        <v>-30.3316678044584</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0000000289834218847318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1046,22 +1046,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.24580093198812</v>
+        <v>1.24580761564065</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0213929199858428</v>
-      </c>
-      <c r="F17" t="n">
-        <v>16729</v>
+        <v>0.021393083855936</v>
+      </c>
+      <c r="F17" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>12.7986472694383</v>
+        <v>12.7989303178784</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0000000289834218847318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1075,22 +1075,22 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>3.34205829212039</v>
+        <v>3.34204098732627</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0454316399796619</v>
-      </c>
-      <c r="F18" t="n">
-        <v>16729</v>
+        <v>0.0454315034958729</v>
+      </c>
+      <c r="F18" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>88.7593682192251</v>
+        <v>88.7587943823536</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0000000289834218847318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1104,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>3.06803042353373</v>
+        <v>3.06801573015952</v>
       </c>
       <c r="E19" t="n">
-        <v>0.14133014272269</v>
-      </c>
-      <c r="F19" t="n">
-        <v>16729</v>
+        <v>0.141338239428452</v>
+      </c>
+      <c r="F19" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>24.335728200567</v>
+        <v>24.3341136030653</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0000000289834218847318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>2.41034295371373</v>
+        <v>2.41027177142656</v>
       </c>
       <c r="E20" t="n">
-        <v>0.136796003075215</v>
-      </c>
-      <c r="F20" t="n">
-        <v>16729</v>
+        <v>0.136800463306256</v>
+      </c>
+      <c r="F20" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>15.501513664032</v>
+        <v>15.5000301490192</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0000000289834218847318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>3.47399188798553</v>
+        <v>3.47396464964648</v>
       </c>
       <c r="E21" t="n">
-        <v>0.159995013501079</v>
-      </c>
-      <c r="F21" t="n">
-        <v>16729</v>
+        <v>0.160003699204838</v>
+      </c>
+      <c r="F21" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>27.0394498889993</v>
+        <v>27.0375998386135</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0000000289834218847318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1191,22 +1191,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>3.18914629005073</v>
+        <v>3.18912252469421</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0396825051702174</v>
-      </c>
-      <c r="F22" t="n">
-        <v>16729</v>
+        <v>0.0396822574563368</v>
+      </c>
+      <c r="F22" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>93.2053758101855</v>
+        <v>93.2046641835255</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0000000289834218847318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1220,22 +1220,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>2.50549545715791</v>
+        <v>2.50541479345395</v>
       </c>
       <c r="E23" t="n">
-        <v>0.136793155425487</v>
-      </c>
-      <c r="F23" t="n">
-        <v>16729</v>
+        <v>0.136797033422326</v>
+      </c>
+      <c r="F23" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>16.822945210494</v>
+        <v>16.8213370597056</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0000000289834218847318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1249,22 +1249,22 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>2.95426730818279</v>
+        <v>2.95432206084217</v>
       </c>
       <c r="E24" t="n">
-        <v>0.169066206320881</v>
-      </c>
-      <c r="F24" t="n">
-        <v>16729</v>
+        <v>0.169079654481652</v>
+      </c>
+      <c r="F24" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>18.9287505253531</v>
+        <v>18.9279195983031</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0000000289834218847318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1278,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>2.71203587385824</v>
+        <v>2.71208719132809</v>
       </c>
       <c r="E25" t="n">
-        <v>0.149478406589718</v>
-      </c>
-      <c r="F25" t="n">
-        <v>16729</v>
+        <v>0.149489940101474</v>
+      </c>
+      <c r="F25" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>18.1015918107397</v>
+        <v>18.1008810100833</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0000000289834218847318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1307,22 +1307,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>2.13066223484312</v>
+        <v>2.130649831631</v>
       </c>
       <c r="E26" t="n">
-        <v>0.038161414025225</v>
-      </c>
-      <c r="F26" t="n">
-        <v>16729</v>
+        <v>0.0381611758382488</v>
+      </c>
+      <c r="F26" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>42.2338355659814</v>
+        <v>42.2335282949624</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0000000289834218847318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>3.08948492867944</v>
+        <v>3.08945310180398</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0410027582401253</v>
-      </c>
-      <c r="F27" t="n">
-        <v>16729</v>
+        <v>0.0410023837364495</v>
+      </c>
+      <c r="F27" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>84.9931249390246</v>
+        <v>84.9922494453169</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0000000289834218847318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1365,22 +1365,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>2.83616649553521</v>
+        <v>2.83613838066893</v>
       </c>
       <c r="E28" t="n">
-        <v>0.130313613224268</v>
-      </c>
-      <c r="F28" t="n">
-        <v>16729</v>
+        <v>0.130320437900258</v>
+      </c>
+      <c r="F28" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>22.6881220734034</v>
+        <v>22.6864933016784</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0000000289834218847318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1394,22 +1394,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>2.22818322648784</v>
+        <v>2.22810600727603</v>
       </c>
       <c r="E29" t="n">
-        <v>0.126202110716012</v>
-      </c>
-      <c r="F29" t="n">
-        <v>16729</v>
+        <v>0.12620562361507</v>
+      </c>
+      <c r="F29" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>14.1454880349118</v>
+        <v>14.143992249428</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0000000289834218847318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>3.09967982929558</v>
+        <v>3.09966959802056</v>
       </c>
       <c r="E30" t="n">
-        <v>0.142346208020278</v>
-      </c>
-      <c r="F30" t="n">
-        <v>16729</v>
+        <v>0.142354632435185</v>
+      </c>
+      <c r="F30" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>24.63475633395</v>
+        <v>24.6331452919198</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0000000289834218847318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1452,22 +1452,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>2.84552547809065</v>
+        <v>2.84551719176623</v>
       </c>
       <c r="E31" t="n">
-        <v>0.034832105921628</v>
-      </c>
-      <c r="F31" t="n">
-        <v>16729</v>
+        <v>0.0348320845348441</v>
+      </c>
+      <c r="F31" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>85.4298583340363</v>
+        <v>85.4294241180604</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0000000289834218847318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1481,22 +1481,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>2.23553594290271</v>
+        <v>2.23547411931507</v>
       </c>
       <c r="E32" t="n">
-        <v>0.121724027274841</v>
-      </c>
-      <c r="F32" t="n">
-        <v>16729</v>
+        <v>0.121728085175016</v>
+      </c>
+      <c r="F32" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>14.7747837425714</v>
+        <v>14.7733747560474</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0000000289834218847318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1510,22 +1510,22 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>2.90555423850664</v>
+        <v>2.90562739734622</v>
       </c>
       <c r="E33" t="n">
-        <v>0.16512283843551</v>
-      </c>
-      <c r="F33" t="n">
-        <v>16729</v>
+        <v>0.165137361526913</v>
+      </c>
+      <c r="F33" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>18.7686596113539</v>
+        <v>18.7679245492727</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0000000289834218847318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1539,22 +1539,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>2.66731697109628</v>
+        <v>2.66738516817908</v>
       </c>
       <c r="E34" t="n">
-        <v>0.145843272040841</v>
-      </c>
-      <c r="F34" t="n">
-        <v>16729</v>
+        <v>0.14585576721158</v>
+      </c>
+      <c r="F34" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>17.9427741808288</v>
+        <v>17.9421633462254</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0000000289834218847318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1568,22 +1568,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2.0955296327205</v>
+        <v>2.09553135962887</v>
       </c>
       <c r="E35" t="n">
-        <v>0.035443960786007</v>
-      </c>
-      <c r="F35" t="n">
-        <v>16729</v>
+        <v>0.0354440323807757</v>
+      </c>
+      <c r="F35" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>43.7390757511998</v>
+        <v>43.7390721680243</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0000000289834218847318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1597,22 +1597,22 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1.50416940162451</v>
+        <v>1.50416313050976</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0695409960746842</v>
-      </c>
-      <c r="F36" t="n">
-        <v>16729</v>
+        <v>0.0695449970361352</v>
+      </c>
+      <c r="F36" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>8.83023589830176</v>
+        <v>8.8296009042371</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0000000289835125899529</v>
+        <v>0.0000000000000897060203897126</v>
       </c>
     </row>
     <row r="37">
@@ -1626,22 +1626,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.591460380575966</v>
+        <v>1.72741520817381</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0325786828883649</v>
-      </c>
-      <c r="F37" t="n">
-        <v>16729</v>
+        <v>0.0982608370353786</v>
+      </c>
+      <c r="F37" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>-9.53419992550286</v>
+        <v>9.60963111630503</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0000000289835196953803</v>
+        <v>0.0000000000000910382880192628</v>
       </c>
     </row>
     <row r="38">
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1.72736387104882</v>
+        <v>0.591446302808938</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0982517235678229</v>
-      </c>
-      <c r="F38" t="n">
-        <v>16729</v>
+        <v>0.0325798019512544</v>
+      </c>
+      <c r="F38" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>9.60971435639325</v>
+        <v>-9.53407761481116</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0000000289835214717371</v>
+        <v>0.0000000000000963673585374636</v>
       </c>
     </row>
     <row r="39">
@@ -1684,22 +1684,22 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5591106320066</v>
+        <v>0.559133008740331</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0316919809002246</v>
-      </c>
-      <c r="F39" t="n">
-        <v>16729</v>
+        <v>0.031695231388633</v>
+      </c>
+      <c r="F39" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>-10.2572113666413</v>
+        <v>-10.2558639046988</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0000000289835340172573</v>
+        <v>0.0000000000000974775815620887</v>
       </c>
     </row>
     <row r="40">
@@ -1713,22 +1713,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.554627398598758</v>
+        <v>0.557290109009338</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0317415701449492</v>
-      </c>
-      <c r="F40" t="n">
-        <v>16729</v>
+        <v>0.0303793679241402</v>
+      </c>
+      <c r="F40" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>-10.2997415877545</v>
+        <v>-10.7253856276067</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0000000289835352385026</v>
+        <v>0.000000000000121125331986605</v>
       </c>
     </row>
     <row r="41">
@@ -1742,22 +1742,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.55727170745934</v>
+        <v>1.58577858598735</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0303765110637068</v>
-      </c>
-      <c r="F41" t="n">
-        <v>16729</v>
+        <v>0.0868324607480823</v>
+      </c>
+      <c r="F41" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>-10.7266459222464</v>
+        <v>8.42039556484233</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0000000289835372369041</v>
+        <v>0.000000000000122790666523542</v>
       </c>
     </row>
     <row r="42">
@@ -1771,22 +1771,22 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.563926004267234</v>
+        <v>0.601358199536479</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0320935864159726</v>
-      </c>
-      <c r="F42" t="n">
-        <v>16729</v>
+        <v>0.0328926071864731</v>
+      </c>
+      <c r="F42" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>-10.0654064883995</v>
+        <v>-9.29781698417497</v>
       </c>
       <c r="I42" t="n">
-        <v>0.000000028983539790417</v>
+        <v>0.000000000000124567023362943</v>
       </c>
     </row>
     <row r="43">
@@ -1800,22 +1800,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1.58573084179463</v>
+        <v>0.554614591787213</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0868246055365319</v>
-      </c>
-      <c r="F43" t="n">
-        <v>16729</v>
+        <v>0.0317427607202122</v>
+      </c>
+      <c r="F43" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>8.42035395033261</v>
+        <v>-10.2995209062271</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0000000289835444533537</v>
+        <v>0.000000000000124789067967868</v>
       </c>
     </row>
     <row r="44">
@@ -1829,22 +1829,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>1.12075829740616</v>
+        <v>0.563909235326743</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0131784928999951</v>
-      </c>
-      <c r="F44" t="n">
-        <v>16729</v>
+        <v>0.0320946274965213</v>
+      </c>
+      <c r="F44" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>9.69554101617748</v>
+        <v>-10.0653031690078</v>
       </c>
       <c r="I44" t="n">
-        <v>0.000000028983546007666</v>
+        <v>0.000000000000134559030584569</v>
       </c>
     </row>
     <row r="45">
@@ -1858,22 +1858,22 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.601376509604928</v>
+        <v>1.12075320926622</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0328916382143885</v>
-      </c>
-      <c r="F45" t="n">
-        <v>16729</v>
+        <v>0.0131784374129877</v>
+      </c>
+      <c r="F45" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>-9.29781731340783</v>
+        <v>9.6951517266398</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0000000289835468958444</v>
+        <v>0.000000000000143329792479108</v>
       </c>
     </row>
     <row r="46">
@@ -1887,22 +1887,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>1.08175257988681</v>
+        <v>1.08175812261879</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0141755968598656</v>
-      </c>
-      <c r="F46" t="n">
-        <v>16729</v>
+        <v>0.0141756637819621</v>
+      </c>
+      <c r="F46" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>5.99670029882279</v>
+        <v>5.99709371927684</v>
       </c>
       <c r="I46" t="n">
-        <v>0.000000164089825949176</v>
+        <v>0.000000132072184189092</v>
       </c>
     </row>
     <row r="47">
@@ -1916,22 +1916,22 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.721215114469015</v>
+        <v>0.721197549810677</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0410041855251451</v>
-      </c>
-      <c r="F47" t="n">
-        <v>16729</v>
+        <v>0.0410057677725544</v>
+      </c>
+      <c r="F47" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>-5.74833900500519</v>
+        <v>-5.748405549459</v>
       </c>
       <c r="I47" t="n">
-        <v>0.000000630234588960832</v>
+        <v>0.000000590777452735836</v>
       </c>
     </row>
     <row r="48">
@@ -1945,22 +1945,22 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.785632024775528</v>
+        <v>0.785612585924142</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0429875640783018</v>
-      </c>
-      <c r="F48" t="n">
-        <v>16729</v>
+        <v>0.0429890912712856</v>
+      </c>
+      <c r="F48" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>-4.40934246200241</v>
+        <v>-4.40952889872703</v>
       </c>
       <c r="I48" t="n">
-        <v>0.000640983262694572</v>
+        <v>0.000636671860432814</v>
       </c>
     </row>
     <row r="49">
@@ -1974,22 +1974,22 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>1.26020229629915</v>
+        <v>1.26016496549864</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0689495688101708</v>
-      </c>
-      <c r="F49" t="n">
-        <v>16729</v>
+        <v>0.0689516715041402</v>
+      </c>
+      <c r="F49" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>4.2270000962587</v>
+        <v>4.22620458379879</v>
       </c>
       <c r="I49" t="n">
-        <v>0.00142897706471656</v>
+        <v>0.00142684075334565</v>
       </c>
     </row>
     <row r="50">
@@ -2003,22 +2003,22 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>1.19563828544156</v>
+        <v>1.1955988069287</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0652588269242767</v>
-      </c>
-      <c r="F50" t="n">
-        <v>16729</v>
+        <v>0.0652606087594657</v>
+      </c>
+      <c r="F50" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>3.27368519468927</v>
+        <v>3.27288279555354</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0492024476857411</v>
+        <v>0.0492529756313682</v>
       </c>
     </row>
     <row r="51">
@@ -2032,22 +2032,22 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>1.17592334260451</v>
+        <v>1.17589232930691</v>
       </c>
       <c r="E51" t="n">
-        <v>0.064641957949312</v>
-      </c>
-      <c r="F51" t="n">
-        <v>16729</v>
+        <v>0.0646440382766612</v>
+      </c>
+      <c r="F51" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>2.94797203741832</v>
+        <v>2.94731967325486</v>
       </c>
       <c r="I51" t="n">
-        <v>0.124469396719421</v>
+        <v>0.124582128615839</v>
       </c>
     </row>
     <row r="52">
@@ -2061,22 +2061,22 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>1.18172365260365</v>
+        <v>1.18168948661152</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0672373157876515</v>
-      </c>
-      <c r="F52" t="n">
-        <v>16729</v>
+        <v>0.0672395698095405</v>
+      </c>
+      <c r="F52" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>2.93463882912542</v>
+        <v>2.93394749403606</v>
       </c>
       <c r="I52" t="n">
-        <v>0.12884894091253</v>
+        <v>0.128979738759407</v>
       </c>
     </row>
     <row r="53">
@@ -2090,22 +2090,22 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>1.12445665480894</v>
+        <v>1.1244594221605</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0515072575740704</v>
-      </c>
-      <c r="F53" t="n">
-        <v>16729</v>
+        <v>0.0515106042253511</v>
+      </c>
+      <c r="F53" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>2.5607790148501</v>
+        <v>2.56067266647194</v>
       </c>
       <c r="I53" t="n">
-        <v>0.30237070002366</v>
+        <v>0.302346897561929</v>
       </c>
     </row>
     <row r="54">
@@ -2119,22 +2119,22 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>1.15023090872952</v>
+        <v>1.15019599222483</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0652962656248192</v>
-      </c>
-      <c r="F54" t="n">
-        <v>16729</v>
+        <v>0.0652983234517716</v>
+      </c>
+      <c r="F54" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>2.46552289558284</v>
+        <v>2.4648356405276</v>
       </c>
       <c r="I54" t="n">
-        <v>0.361965299949962</v>
+        <v>0.362340661707384</v>
       </c>
     </row>
     <row r="55">
@@ -2148,22 +2148,22 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>1.13126469052529</v>
+        <v>1.13123786726677</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0645898591650147</v>
-      </c>
-      <c r="F55" t="n">
-        <v>16729</v>
+        <v>0.0645922209846967</v>
+      </c>
+      <c r="F55" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>2.16018260828281</v>
+        <v>2.15963713731721</v>
       </c>
       <c r="I55" t="n">
-        <v>0.578881928793441</v>
+        <v>0.579264845338552</v>
       </c>
     </row>
     <row r="56">
@@ -2177,22 +2177,22 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0.91800625703246</v>
+        <v>0.918006613860836</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0424160393171638</v>
-      </c>
-      <c r="F56" t="n">
-        <v>16729</v>
+        <v>0.0424186802756081</v>
+      </c>
+      <c r="F56" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>-1.85157362792505</v>
+        <v>-1.85145065780036</v>
       </c>
       <c r="I56" t="n">
-        <v>0.789065727140652</v>
+        <v>0.789162749597058</v>
       </c>
     </row>
     <row r="57">
@@ -2206,22 +2206,22 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>1.07819467692568</v>
+        <v>1.07819265300421</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0493849106315879</v>
-      </c>
-      <c r="F57" t="n">
-        <v>16729</v>
+        <v>0.0493879107417213</v>
+      </c>
+      <c r="F57" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>1.6437241760188</v>
+        <v>1.64358026124058</v>
       </c>
       <c r="I57" t="n">
-        <v>0.892864272604051</v>
+        <v>0.892950939540584</v>
       </c>
     </row>
     <row r="58">
@@ -2235,22 +2235,22 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.937725360502863</v>
+        <v>0.937726027118943</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0432813036089505</v>
-      </c>
-      <c r="F58" t="n">
-        <v>16729</v>
+        <v>0.0432840094539733</v>
+      </c>
+      <c r="F58" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>-1.39307311437587</v>
+        <v>-1.39297161744584</v>
       </c>
       <c r="I58" t="n">
-        <v>0.965115658147355</v>
+        <v>0.965151497337457</v>
       </c>
     </row>
     <row r="59">
@@ -2264,22 +2264,22 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>1.06681189709565</v>
+        <v>1.06678151536276</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0580152042668923</v>
-      </c>
-      <c r="F59" t="n">
-        <v>16729</v>
+        <v>0.0580170850921741</v>
+      </c>
+      <c r="F59" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>1.18926931927135</v>
+        <v>1.18867323561044</v>
       </c>
       <c r="I59" t="n">
-        <v>0.989860794924654</v>
+        <v>0.989909618154164</v>
       </c>
     </row>
     <row r="60">
@@ -2293,22 +2293,22 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>1.06330313429886</v>
+        <v>1.06326540857429</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0601730909349564</v>
-      </c>
-      <c r="F60" t="n">
-        <v>16729</v>
+        <v>0.0601747093788325</v>
+      </c>
+      <c r="F60" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>1.08463413034718</v>
+        <v>1.08393955136611</v>
       </c>
       <c r="I60" t="n">
-        <v>0.995348160779532</v>
+        <v>0.995377625213117</v>
       </c>
     </row>
     <row r="61">
@@ -2322,22 +2322,22 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>1.01676550003113</v>
+        <v>1.01675874323749</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0181263316058911</v>
-      </c>
-      <c r="F61" t="n">
-        <v>16729</v>
+        <v>0.0181262038175873</v>
+      </c>
+      <c r="F61" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0.932635598830028</v>
+        <v>0.932263213457147</v>
       </c>
       <c r="I61" t="n">
-        <v>0.998798695861532</v>
+        <v>0.998804258568529</v>
       </c>
     </row>
     <row r="62">
@@ -2351,22 +2351,22 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>0.948565394567328</v>
+        <v>0.948532880820323</v>
       </c>
       <c r="E62" t="n">
-        <v>0.053951568170445</v>
-      </c>
-      <c r="F62" t="n">
-        <v>16729</v>
+        <v>0.0539530979666435</v>
+      </c>
+      <c r="F62" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.928398699208165</v>
+        <v>-0.928943173138273</v>
       </c>
       <c r="I62" t="n">
-        <v>0.998848232307389</v>
+        <v>0.998843069884403</v>
       </c>
     </row>
     <row r="63">
@@ -2380,22 +2380,22 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0.953087890001258</v>
+        <v>0.953108699949439</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0522936554305525</v>
-      </c>
-      <c r="F63" t="n">
-        <v>16729</v>
+        <v>0.052297876698251</v>
+      </c>
+      <c r="F63" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.875710720816687</v>
+        <v>-0.8752612397553</v>
       </c>
       <c r="I63" t="n">
-        <v>0.999332957038884</v>
+        <v>0.999336848726679</v>
       </c>
     </row>
     <row r="64">
@@ -2409,22 +2409,22 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0.962022480155632</v>
+        <v>0.962025041811052</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0441405188797365</v>
-      </c>
-      <c r="F64" t="n">
-        <v>16729</v>
+        <v>0.0441433919492682</v>
+      </c>
+      <c r="F64" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.843829394562584</v>
+        <v>-0.843718690370044</v>
       </c>
       <c r="I64" t="n">
-        <v>0.999530891978715</v>
+        <v>0.999531963623748</v>
       </c>
     </row>
     <row r="65">
@@ -2438,22 +2438,22 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0.956232956749057</v>
+        <v>0.956260530097414</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0545329667942965</v>
-      </c>
-      <c r="F65" t="n">
-        <v>16729</v>
+        <v>0.054537839212</v>
+      </c>
+      <c r="F65" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>-0.784754280860124</v>
+        <v>-0.78420120822</v>
       </c>
       <c r="I65" t="n">
-        <v>0.999766990559663</v>
+        <v>0.999768836062334</v>
       </c>
     </row>
     <row r="66">
@@ -2467,22 +2467,22 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>1.01155992417508</v>
+        <v>1.0115245321009</v>
       </c>
       <c r="E66" t="n">
-        <v>0.055349706617796</v>
-      </c>
-      <c r="F66" t="n">
-        <v>16729</v>
+        <v>0.0553511066474436</v>
+      </c>
+      <c r="F66" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0.210055026928632</v>
+        <v>0.209402965506675</v>
       </c>
       <c r="I66" t="n">
-        <v>0.999999999785731</v>
+        <v>0.999999999793174</v>
       </c>
     </row>
     <row r="67">
@@ -2496,19 +2496,19 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0.996710982689311</v>
+        <v>0.996704004767765</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0454972277603413</v>
-      </c>
-      <c r="F67" t="n">
-        <v>16729</v>
+        <v>0.0454997734448836</v>
+      </c>
+      <c r="F67" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>-0.0721714863789288</v>
+        <v>-0.0723203043276856</v>
       </c>
       <c r="I67" t="n">
         <v>1</v>

--- a/results/Temp Results/lmer_multi_comp_basin_season_temp.xlsx
+++ b/results/Temp Results/lmer_multi_comp_basin_season_temp.xlsx
@@ -44,6 +44,72 @@
     <t xml:space="preserve">fish_basin*season</t>
   </si>
   <si>
+    <t xml:space="preserve">East Winter / East Spring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Winter / West Spring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Winter / East Summer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Winter / West Summer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Winter / North Summer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Winter / East Fall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Winter / West Fall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Winter / North Fall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Winter / West Spring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Winter / East Summer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Winter / West Summer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Winter / North Summer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Winter / East Fall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Winter / West Fall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Winter / North Fall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Winter / North Spring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Winter / East Summer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Winter / West Summer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Winter / North Summer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Winter / East Fall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Winter / West Fall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Winter / North Fall</t>
+  </si>
+  <si>
     <t xml:space="preserve">East Spring / East Summer</t>
   </si>
   <si>
@@ -56,9 +122,6 @@
     <t xml:space="preserve">East Spring / West Fall</t>
   </si>
   <si>
-    <t xml:space="preserve">East Spring / East Winter</t>
-  </si>
-  <si>
     <t xml:space="preserve">West Spring / East Summer</t>
   </si>
   <si>
@@ -71,12 +134,6 @@
     <t xml:space="preserve">West Spring / West Fall</t>
   </si>
   <si>
-    <t xml:space="preserve">West Spring / East Winter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Spring / West Winter</t>
-  </si>
-  <si>
     <t xml:space="preserve">North Spring / East Summer</t>
   </si>
   <si>
@@ -89,79 +146,22 @@
     <t xml:space="preserve">North Spring / North Fall</t>
   </si>
   <si>
-    <t xml:space="preserve">North Spring / North Winter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">East Summer / East Winter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">East Summer / West Winter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">East Summer / North Winter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Summer / East Winter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Summer / West Winter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Summer / North Winter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Summer / East Winter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Summer / West Winter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Summer / North Winter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">East Fall / East Winter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">East Fall / West Winter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">East Fall / North Winter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Fall / East Winter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Fall / West Winter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Fall / North Winter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Fall / East Winter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Fall / West Winter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Fall / North Winter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">East Spring / West Winter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Spring / East Winter</t>
+    <t xml:space="preserve">West Winter / East Spring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Winter / North Spring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Spring / East Fall</t>
   </si>
   <si>
     <t xml:space="preserve">West Spring / North Summer</t>
   </si>
   <si>
-    <t xml:space="preserve">North Spring / East Fall</t>
-  </si>
-  <si>
     <t xml:space="preserve">North Spring / West Fall</t>
   </si>
   <si>
-    <t xml:space="preserve">North Spring / West Winter</t>
+    <t xml:space="preserve">West Winter / North Spring</t>
   </si>
   <si>
     <t xml:space="preserve">West Spring / North Fall</t>
@@ -185,7 +185,7 @@
     <t xml:space="preserve">West Winter / North Winter</t>
   </si>
   <si>
-    <t xml:space="preserve">West Spring / North Winter</t>
+    <t xml:space="preserve">North Winter / West Spring</t>
   </si>
   <si>
     <t xml:space="preserve">West Summer / North Fall</t>
@@ -194,7 +194,7 @@
     <t xml:space="preserve">West Summer / North Summer</t>
   </si>
   <si>
-    <t xml:space="preserve">East Spring / North Winter</t>
+    <t xml:space="preserve">North Winter / East Spring</t>
   </si>
   <si>
     <t xml:space="preserve">West Summer / East Fall</t>
@@ -611,10 +611,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.490272300667621</v>
+        <v>0.610318121366155</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00661407606964603</v>
+        <v>0.00838132868446366</v>
       </c>
       <c r="F2" t="e">
         <v>#NUM!</v>
@@ -623,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>-52.8363010519315</v>
+        <v>-35.9560887742391</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -640,10 +640,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.471654230548569</v>
+        <v>0.572287397786046</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0217187118894262</v>
+        <v>0.0264297174042596</v>
       </c>
       <c r="F3" t="e">
         <v>#NUM!</v>
@@ -652,7 +652,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>-16.3201417999509</v>
+        <v>-12.0849416107192</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.530356043542201</v>
+        <v>0.299216962716478</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00710544528301189</v>
+        <v>0.00406754023883397</v>
       </c>
       <c r="F4" t="e">
         <v>#NUM!</v>
@@ -681,7 +681,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>-47.3376899259618</v>
+        <v>-88.7590728022113</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -698,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.528607992551299</v>
+        <v>0.287846490476179</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0243056158976869</v>
+        <v>0.0132578972162387</v>
       </c>
       <c r="F5" t="e">
         <v>#NUM!</v>
@@ -710,7 +710,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>-13.8647754645311</v>
+        <v>-27.0377177443048</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.63851012378194</v>
+        <v>0.338478131514251</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0225012764675336</v>
+        <v>0.0193718894399901</v>
       </c>
       <c r="F6" t="e">
         <v>#NUM!</v>
@@ -739,7 +739,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>35.9568757064514</v>
+        <v>-18.9280419426111</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -756,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.522831068445362</v>
+        <v>0.323682115227811</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0240537150886794</v>
+        <v>0.00429582028461218</v>
       </c>
       <c r="F7" t="e">
         <v>#NUM!</v>
@@ -768,7 +768,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-14.0957149949734</v>
+        <v>-84.992214754055</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.502976580481266</v>
+        <v>0.32260820378611</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00613514150729949</v>
+        <v>0.0148163285746564</v>
       </c>
       <c r="F8" t="e">
         <v>#NUM!</v>
@@ -797,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>-56.3395930238899</v>
+        <v>-24.6330959324344</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.565576755048231</v>
+        <v>0.344156631767417</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0259787609583072</v>
+        <v>0.0195600266605125</v>
       </c>
       <c r="F9" t="e">
         <v>#NUM!</v>
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>-12.4073443001349</v>
+        <v>-18.7677434533311</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -843,10 +843,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.563712616760129</v>
+        <v>0.623415448242188</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00689320361719696</v>
+        <v>0.00798342468123244</v>
       </c>
       <c r="F10" t="e">
         <v>#NUM!</v>
@@ -855,7 +855,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>-46.8760423713961</v>
+        <v>-36.9002121744766</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -872,10 +872,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.74732286019199</v>
+        <v>0.325948950920805</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0806942081055482</v>
+        <v>0.0150162061519399</v>
       </c>
       <c r="F11" t="e">
         <v>#NUM!</v>
@@ -884,7 +884,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>12.0845645685233</v>
+        <v>-24.33327681066</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1.60405394220648</v>
+        <v>0.313562642789901</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0205414532702054</v>
+        <v>0.00390165674863552</v>
       </c>
       <c r="F12" t="e">
         <v>#NUM!</v>
@@ -913,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>36.8995434749323</v>
+        <v>-93.2055836362526</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.516874333595707</v>
+        <v>0.368717705290137</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0293288111805972</v>
+        <v>0.0203240844215119</v>
       </c>
       <c r="F13" t="e">
         <v>#NUM!</v>
@@ -942,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>-11.6306814639361</v>
+        <v>-18.1006179277801</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.49724605238847</v>
+        <v>0.352599815640473</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0271539296234805</v>
+        <v>0.0162022691000876</v>
       </c>
       <c r="F14" t="e">
         <v>#NUM!</v>
@@ -971,7 +971,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>-12.794135268674</v>
+        <v>-22.6855656876556</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -988,10 +988,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.584707818781741</v>
+        <v>0.351429961148847</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0104197279973997</v>
+        <v>0.00430185421026846</v>
       </c>
       <c r="F15" t="e">
         <v>#NUM!</v>
@@ -1000,7 +1000,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>-30.1139688916622</v>
+        <v>-85.4296896540082</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1017,10 +1017,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.59450678698566</v>
+        <v>0.374903521707494</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0101925582216872</v>
+        <v>0.0205005635936844</v>
       </c>
       <c r="F16" t="e">
         <v>#NUM!</v>
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>-30.3316678044584</v>
+        <v>-17.9415948906806</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1046,10 +1046,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.24580761564065</v>
+        <v>0.802686866498741</v>
       </c>
       <c r="E17" t="n">
-        <v>0.021393083855936</v>
+        <v>0.0137837153511153</v>
       </c>
       <c r="F17" t="e">
         <v>#NUM!</v>
@@ -1058,7 +1058,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>12.7989303178784</v>
+        <v>-12.7993810087951</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>3.34204098732627</v>
+        <v>0.414888016584282</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0454315034958729</v>
+        <v>0.0235483324281042</v>
       </c>
       <c r="F18" t="e">
         <v>#NUM!</v>
@@ -1087,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>88.7587943823536</v>
+        <v>-15.4998804051333</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>3.06801573015952</v>
+        <v>0.399121956289517</v>
       </c>
       <c r="E19" t="n">
-        <v>0.141338239428452</v>
+        <v>0.0217926949718863</v>
       </c>
       <c r="F19" t="e">
         <v>#NUM!</v>
@@ -1116,7 +1116,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>24.3341136030653</v>
+        <v>-16.8216381320485</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>2.41027177142656</v>
+        <v>0.46932673657999</v>
       </c>
       <c r="E20" t="n">
-        <v>0.136800463306256</v>
+        <v>0.00840592068029799</v>
       </c>
       <c r="F20" t="e">
         <v>#NUM!</v>
@@ -1145,7 +1145,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>15.5000301490192</v>
+        <v>-42.2351197446433</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>3.47396464964648</v>
+        <v>0.448810888164517</v>
       </c>
       <c r="E21" t="n">
-        <v>0.160003699204838</v>
+        <v>0.0254222504801993</v>
       </c>
       <c r="F21" t="e">
         <v>#NUM!</v>
@@ -1174,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>27.0375998386135</v>
+        <v>-14.1437709450204</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1191,10 +1191,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>3.18912252469421</v>
+        <v>0.44732182489755</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0396822574563368</v>
+        <v>0.0243584404110482</v>
       </c>
       <c r="F22" t="e">
         <v>#NUM!</v>
@@ -1203,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>93.2046641835255</v>
+        <v>-14.7735283318344</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1220,10 +1220,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>2.50541479345395</v>
+        <v>0.477200426914324</v>
       </c>
       <c r="E23" t="n">
-        <v>0.136797033422326</v>
+        <v>0.00807138487481757</v>
       </c>
       <c r="F23" t="e">
         <v>#NUM!</v>
@@ -1232,7 +1232,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>16.8213370597056</v>
+        <v>-43.7399284207149</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1249,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>2.95432206084217</v>
+        <v>0.490263933252877</v>
       </c>
       <c r="E24" t="n">
-        <v>0.169079654481652</v>
+        <v>0.00661394795756857</v>
       </c>
       <c r="F24" t="e">
         <v>#NUM!</v>
@@ -1261,7 +1261,7 @@
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>18.9279195983031</v>
+        <v>-52.837687828171</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1278,10 +1278,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>2.71208719132809</v>
+        <v>0.471633530775482</v>
       </c>
       <c r="E25" t="n">
-        <v>0.149489940101474</v>
+        <v>0.0217181966937259</v>
       </c>
       <c r="F25" t="e">
         <v>#NUM!</v>
@@ -1290,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>18.1008810100833</v>
+        <v>-16.3207657613957</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>2.130649831631</v>
+        <v>0.53034983543217</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0381611758382488</v>
+        <v>0.0071053348879968</v>
       </c>
       <c r="F26" t="e">
         <v>#NUM!</v>
@@ -1319,7 +1319,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>42.2335282949624</v>
+        <v>-47.3387450055214</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>3.08945310180398</v>
+        <v>0.528590242518072</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0410023837364495</v>
+        <v>0.024305282831842</v>
       </c>
       <c r="F27" t="e">
         <v>#NUM!</v>
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>84.9922494453169</v>
+        <v>-13.8652301733892</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1365,10 +1365,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>2.83613838066893</v>
+        <v>0.522843878572253</v>
       </c>
       <c r="E28" t="n">
-        <v>0.130320437900258</v>
+        <v>0.0240547852443368</v>
       </c>
       <c r="F28" t="e">
         <v>#NUM!</v>
@@ -1377,7 +1377,7 @@
         <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>22.6864933016784</v>
+        <v>-14.0949007051947</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>2.22810600727603</v>
+        <v>0.502975413384504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.12620562361507</v>
+        <v>0.00613513432245673</v>
       </c>
       <c r="F29" t="e">
         <v>#NUM!</v>
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>14.143992249428</v>
+        <v>-56.3397185050889</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>3.09966959802056</v>
+        <v>0.565593644871457</v>
       </c>
       <c r="E30" t="n">
-        <v>0.142354632435185</v>
+        <v>0.0259800610988546</v>
       </c>
       <c r="F30" t="e">
         <v>#NUM!</v>
@@ -1435,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>24.6331452919198</v>
+        <v>-12.4064437749196</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -1452,10 +1452,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>2.84551719176623</v>
+        <v>0.563717120164019</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0348320845348441</v>
+        <v>0.00689325126955541</v>
       </c>
       <c r="F31" t="e">
         <v>#NUM!</v>
@@ -1464,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>85.4294241180604</v>
+        <v>-46.8754394952809</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1481,10 +1481,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>2.23547411931507</v>
+        <v>0.5168740562481</v>
       </c>
       <c r="E32" t="n">
-        <v>0.121728085175016</v>
+        <v>0.0293293214270969</v>
       </c>
       <c r="F32" t="e">
         <v>#NUM!</v>
@@ -1493,7 +1493,7 @@
         <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>14.7733747560474</v>
+        <v>-11.6304823388364</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -1510,10 +1510,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>2.90562739734622</v>
+        <v>0.497232448850766</v>
       </c>
       <c r="E33" t="n">
-        <v>0.165137361526913</v>
+        <v>0.0271537078219954</v>
       </c>
       <c r="F33" t="e">
         <v>#NUM!</v>
@@ -1522,7 +1522,7 @@
         <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>18.7679245492727</v>
+        <v>-12.7943907299944</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>2.66738516817908</v>
+        <v>0.584694675056984</v>
       </c>
       <c r="E34" t="n">
-        <v>0.14585576721158</v>
+        <v>0.0104195170562478</v>
       </c>
       <c r="F34" t="e">
         <v>#NUM!</v>
@@ -1551,7 +1551,7 @@
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>17.9421633462254</v>
+        <v>-30.1151630318713</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -1568,10 +1568,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2.09553135962887</v>
+        <v>0.594503843068762</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0354440323807757</v>
+        <v>0.0101924769814199</v>
       </c>
       <c r="F35" t="e">
         <v>#NUM!</v>
@@ -1580,7 +1580,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>43.7390721680243</v>
+        <v>-30.332048198497</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -1597,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1.50416313050976</v>
+        <v>0.664843829645289</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0695449970361352</v>
+        <v>0.0307396744983012</v>
       </c>
       <c r="F36" t="e">
         <v>#NUM!</v>
@@ -1609,10 +1609,10 @@
         <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>8.8296009042371</v>
+        <v>-8.8286984942873</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0000000000000897060203897126</v>
+        <v>0.000000000000088928864272475</v>
       </c>
     </row>
     <row r="37">
@@ -1626,10 +1626,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1.72741520817381</v>
+        <v>0.578897236375999</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0982608370353786</v>
+        <v>0.0329301004535929</v>
       </c>
       <c r="F37" t="e">
         <v>#NUM!</v>
@@ -1638,10 +1638,10 @@
         <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>9.60963111630503</v>
+        <v>-9.60952947883057</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0000000000000910382880192628</v>
+        <v>0.0000000000000901501095995627</v>
       </c>
     </row>
     <row r="38">
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.591446302808938</v>
+        <v>0.559135706458231</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0325798019512544</v>
+        <v>0.0316959530012801</v>
       </c>
       <c r="F38" t="e">
         <v>#NUM!</v>
@@ -1667,10 +1667,10 @@
         <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>-9.53407761481116</v>
+        <v>-10.2555947814156</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0000000000000963673585374636</v>
+        <v>0.0000000000000959232693276135</v>
       </c>
     </row>
     <row r="39">
@@ -1684,10 +1684,10 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.559133008740331</v>
+        <v>0.591447815946479</v>
       </c>
       <c r="E39" t="n">
-        <v>0.031695231388633</v>
+        <v>0.0325805422531612</v>
       </c>
       <c r="F39" t="e">
         <v>#NUM!</v>
@@ -1696,10 +1696,10 @@
         <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>-10.2558639046988</v>
+        <v>-9.53383892758944</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0000000000000974775815620887</v>
+        <v>0.0000000000000963673585374636</v>
       </c>
     </row>
     <row r="40">
@@ -1713,10 +1713,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.557290109009338</v>
+        <v>0.557280607877308</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0303793679241402</v>
+        <v>0.0303794286028053</v>
       </c>
       <c r="F40" t="e">
         <v>#NUM!</v>
@@ -1725,10 +1725,10 @@
         <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>-10.7253856276067</v>
+        <v>-10.7254940966789</v>
       </c>
       <c r="I40" t="n">
-        <v>0.000000000000121125331986605</v>
+        <v>0.000000000000121236354289067</v>
       </c>
     </row>
     <row r="41">
@@ -1742,10 +1742,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1.58577858598735</v>
+        <v>0.630615808591386</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0868324607480823</v>
+        <v>0.0345312796908114</v>
       </c>
       <c r="F41" t="e">
         <v>#NUM!</v>
@@ -1754,10 +1754,10 @@
         <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>8.42039556484233</v>
+        <v>-8.41992414103737</v>
       </c>
       <c r="I41" t="n">
-        <v>0.000000000000122790666523542</v>
+        <v>0.00000000000012312373343093</v>
       </c>
     </row>
     <row r="42">
@@ -1771,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.601358199536479</v>
+        <v>0.601370278462925</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0328926071864731</v>
+        <v>0.0328939089046455</v>
       </c>
       <c r="F42" t="e">
         <v>#NUM!</v>
@@ -1783,10 +1783,10 @@
         <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>-9.29781698417497</v>
+        <v>-9.29726857651214</v>
       </c>
       <c r="I42" t="n">
-        <v>0.000000000000124567023362943</v>
+        <v>0.000000000000123345778035855</v>
       </c>
     </row>
     <row r="43">
@@ -1800,10 +1800,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.554614591787213</v>
+        <v>0.554592956795369</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0317427607202122</v>
+        <v>0.0317420871342258</v>
       </c>
       <c r="F43" t="e">
         <v>#NUM!</v>
@@ -1812,10 +1812,10 @@
         <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>-10.2995209062271</v>
+        <v>-10.3000192587151</v>
       </c>
       <c r="I43" t="n">
-        <v>0.000000000000124789067967868</v>
+        <v>0.000000000000124233956455555</v>
       </c>
     </row>
     <row r="44">
@@ -1829,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.563909235326743</v>
+        <v>0.563897121384903</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0320946274965213</v>
+        <v>0.0320945078755182</v>
       </c>
       <c r="F44" t="e">
         <v>#NUM!</v>
@@ -1841,10 +1841,10 @@
         <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>-10.0653031690078</v>
+        <v>-10.0655019013521</v>
       </c>
       <c r="I44" t="n">
-        <v>0.000000000000134559030584569</v>
+        <v>0.000000000000134670052887031</v>
       </c>
     </row>
     <row r="45">
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>1.12075320926622</v>
+        <v>1.1207647633724</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0131784374129877</v>
+        <v>0.0131785609008771</v>
       </c>
       <c r="F45" t="e">
         <v>#NUM!</v>
@@ -1870,10 +1870,10 @@
         <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>9.6951517266398</v>
+        <v>9.69603756776329</v>
       </c>
       <c r="I45" t="n">
-        <v>0.000000000000143329792479108</v>
+        <v>0.000000000000145550238528358</v>
       </c>
     </row>
     <row r="46">
@@ -1887,10 +1887,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>1.08175812261879</v>
+        <v>1.08176392236999</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0141756637819621</v>
+        <v>0.0141757421953015</v>
       </c>
       <c r="F46" t="e">
         <v>#NUM!</v>
@@ -1899,10 +1899,10 @@
         <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>5.99709371927684</v>
+        <v>5.99750183217121</v>
       </c>
       <c r="I46" t="n">
-        <v>0.000000132072184189092</v>
+        <v>0.00000013174123436599</v>
       </c>
     </row>
     <row r="47">
@@ -1916,10 +1916,10 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.721197549810677</v>
+        <v>0.721199337546289</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0410057677725544</v>
+        <v>0.0410066064677118</v>
       </c>
       <c r="F47" t="e">
         <v>#NUM!</v>
@@ -1928,10 +1928,10 @@
         <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>-5.748405549459</v>
+        <v>-5.74825863190521</v>
       </c>
       <c r="I47" t="n">
-        <v>0.000000590777452735836</v>
+        <v>0.000000591289774920511</v>
       </c>
     </row>
     <row r="48">
@@ -1945,10 +1945,10 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.785612585924142</v>
+        <v>0.785631153206833</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0429890912712856</v>
+        <v>0.0429909209227037</v>
       </c>
       <c r="F48" t="e">
         <v>#NUM!</v>
@@ -1957,10 +1957,10 @@
         <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>-4.40952889872703</v>
+        <v>-4.40901355095331</v>
       </c>
       <c r="I48" t="n">
-        <v>0.000636671860432814</v>
+        <v>0.000638151600687809</v>
       </c>
     </row>
     <row r="49">
@@ -1974,10 +1974,10 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>1.26016496549864</v>
+        <v>0.793521801799096</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0689516715041402</v>
+        <v>0.0434194731942416</v>
       </c>
       <c r="F49" t="e">
         <v>#NUM!</v>
@@ -1986,10 +1986,10 @@
         <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>4.22620458379879</v>
+        <v>-4.22670191744103</v>
       </c>
       <c r="I49" t="n">
-        <v>0.00142684075334565</v>
+        <v>0.00142379409330795</v>
       </c>
     </row>
     <row r="50">
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>1.1955988069287</v>
+        <v>1.19562559612273</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0652606087594657</v>
+        <v>0.0652633407066879</v>
       </c>
       <c r="F50" t="e">
         <v>#NUM!</v>
@@ -2015,10 +2015,10 @@
         <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>3.27288279555354</v>
+        <v>3.27322960532617</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0492529756313682</v>
+        <v>0.0492002376295735</v>
       </c>
     </row>
     <row r="51">
@@ -2032,10 +2032,10 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>1.17589232930691</v>
+        <v>1.17589806620297</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0646440382766612</v>
+        <v>0.064645656162586</v>
       </c>
       <c r="F51" t="e">
         <v>#NUM!</v>
@@ -2044,10 +2044,10 @@
         <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>2.94731967325486</v>
+        <v>2.9473490335688</v>
       </c>
       <c r="I51" t="n">
-        <v>0.124582128615839</v>
+        <v>0.124572601781114</v>
       </c>
     </row>
     <row r="52">
@@ -2061,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>1.18168948661152</v>
+        <v>0.846254412050098</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0672395698095405</v>
+        <v>0.0481537552963892</v>
       </c>
       <c r="F52" t="e">
         <v>#NUM!</v>
@@ -2073,10 +2073,10 @@
         <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>2.93394749403606</v>
+        <v>-2.9337210245701</v>
       </c>
       <c r="I52" t="n">
-        <v>0.128979738759407</v>
+        <v>0.12905522757108</v>
       </c>
     </row>
     <row r="53">
@@ -2090,10 +2090,10 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>1.1244594221605</v>
+        <v>1.1244956111584</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0515106042253511</v>
+        <v>0.0515132949664</v>
       </c>
       <c r="F53" t="e">
         <v>#NUM!</v>
@@ -2102,10 +2102,10 @@
         <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>2.56067266647194</v>
+        <v>2.56132384845791</v>
       </c>
       <c r="I53" t="n">
-        <v>0.302346897561929</v>
+        <v>0.301958920116116</v>
       </c>
     </row>
     <row r="54">
@@ -2119,10 +2119,10 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>1.15019599222483</v>
+        <v>1.15019091378694</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0652983234517716</v>
+        <v>0.0652992020131425</v>
       </c>
       <c r="F54" t="e">
         <v>#NUM!</v>
@@ -2131,10 +2131,10 @@
         <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>2.4648356405276</v>
+        <v>2.46471382320683</v>
       </c>
       <c r="I54" t="n">
-        <v>0.362340661707384</v>
+        <v>0.362420367618906</v>
       </c>
     </row>
     <row r="55">
@@ -2148,10 +2148,10 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>1.13123786726677</v>
+        <v>1.13121304501368</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0645922209846967</v>
+        <v>0.0645919604652195</v>
       </c>
       <c r="F55" t="e">
         <v>#NUM!</v>
@@ -2160,10 +2160,10 @@
         <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>2.15963713731721</v>
+        <v>2.15921417063707</v>
       </c>
       <c r="I55" t="n">
-        <v>0.579264845338552</v>
+        <v>0.57957549189651</v>
       </c>
     </row>
     <row r="56">
@@ -2177,10 +2177,10 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0.918006613860836</v>
+        <v>0.917987193611731</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0424186802756081</v>
+        <v>0.0424186626698961</v>
       </c>
       <c r="F56" t="e">
         <v>#NUM!</v>
@@ -2189,10 +2189,10 @@
         <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>-1.85145065780036</v>
+        <v>-1.85187007753415</v>
       </c>
       <c r="I56" t="n">
-        <v>0.789162749597058</v>
+        <v>0.788914961922055</v>
       </c>
     </row>
     <row r="57">
@@ -2206,10 +2206,10 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>1.07819265300421</v>
+        <v>1.07817484963844</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0493879107417213</v>
+        <v>0.0493880619312556</v>
       </c>
       <c r="F57" t="e">
         <v>#NUM!</v>
@@ -2218,10 +2218,10 @@
         <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>1.64358026124058</v>
+        <v>1.64318761456904</v>
       </c>
       <c r="I57" t="n">
-        <v>0.892950939540584</v>
+        <v>0.893108840573361</v>
       </c>
     </row>
     <row r="58">
@@ -2235,10 +2235,10 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.937726027118943</v>
+        <v>0.937687048362615</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0432840094539733</v>
+        <v>0.0432830883360613</v>
       </c>
       <c r="F58" t="e">
         <v>#NUM!</v>
@@ -2247,10 +2247,10 @@
         <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>-1.39297161744584</v>
+        <v>-1.39384389352269</v>
       </c>
       <c r="I58" t="n">
-        <v>0.965151497337457</v>
+        <v>0.96499085249428</v>
       </c>
     </row>
     <row r="59">
@@ -2264,10 +2264,10 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>1.06678151536276</v>
+        <v>1.0667944203787</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0580170850921741</v>
+        <v>0.0580189164320813</v>
       </c>
       <c r="F59" t="e">
         <v>#NUM!</v>
@@ -2276,10 +2276,10 @@
         <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>1.18867323561044</v>
+        <v>1.18887252387766</v>
       </c>
       <c r="I59" t="n">
-        <v>0.989909618154164</v>
+        <v>0.989895662477088</v>
       </c>
     </row>
     <row r="60">
@@ -2293,10 +2293,10 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>1.06326540857429</v>
+        <v>1.06325501341091</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0601747093788325</v>
+        <v>0.0601752077170691</v>
       </c>
       <c r="F60" t="e">
         <v>#NUM!</v>
@@ -2305,10 +2305,10 @@
         <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>1.08393955136611</v>
+        <v>1.08374723013946</v>
       </c>
       <c r="I60" t="n">
-        <v>0.995377625213117</v>
+        <v>0.995384733148575</v>
       </c>
     </row>
     <row r="61">
@@ -2322,10 +2322,10 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>1.01675874323749</v>
+        <v>1.01677656464175</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0181262038175873</v>
+        <v>0.0181265741409188</v>
       </c>
       <c r="F61" t="e">
         <v>#NUM!</v>
@@ -2334,10 +2334,10 @@
         <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0.932263213457147</v>
+        <v>0.933243680632532</v>
       </c>
       <c r="I61" t="n">
-        <v>0.998804258568529</v>
+        <v>0.998792586633517</v>
       </c>
     </row>
     <row r="62">
@@ -2351,10 +2351,10 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>0.948532880820323</v>
+        <v>0.948517201291971</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0539530979666435</v>
+        <v>0.0539531669758294</v>
       </c>
       <c r="F62" t="e">
         <v>#NUM!</v>
@@ -2363,10 +2363,10 @@
         <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.928943173138273</v>
+        <v>-0.929217240558861</v>
       </c>
       <c r="I62" t="n">
-        <v>0.998843069884403</v>
+        <v>0.998839907279703</v>
       </c>
     </row>
     <row r="63">
@@ -2380,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0.953108699949439</v>
+        <v>0.953113875755745</v>
       </c>
       <c r="E63" t="n">
-        <v>0.052297876698251</v>
+        <v>0.0522992080074301</v>
       </c>
       <c r="F63" t="e">
         <v>#NUM!</v>
@@ -2392,10 +2392,10 @@
         <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.8752612397553</v>
+        <v>-0.875144746810591</v>
       </c>
       <c r="I63" t="n">
-        <v>0.999336848726679</v>
+        <v>0.999337681534283</v>
       </c>
     </row>
     <row r="64">
@@ -2409,10 +2409,10 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0.962025041811052</v>
+        <v>0.961999239157196</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0441433919492682</v>
+        <v>0.0441430850904628</v>
       </c>
       <c r="F64" t="e">
         <v>#NUM!</v>
@@ -2421,10 +2421,10 @@
         <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.843718690370044</v>
+        <v>-0.844286441032665</v>
       </c>
       <c r="I64" t="n">
-        <v>0.999531963623748</v>
+        <v>0.99952894878595</v>
       </c>
     </row>
     <row r="65">
@@ -2438,10 +2438,10 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0.956260530097414</v>
+        <v>0.956286640379849</v>
       </c>
       <c r="E65" t="n">
-        <v>0.054537839212</v>
+        <v>0.0545403065758189</v>
       </c>
       <c r="F65" t="e">
         <v>#NUM!</v>
@@ -2450,10 +2450,10 @@
         <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>-0.78420120822</v>
+        <v>-0.783708402605774</v>
       </c>
       <c r="I65" t="n">
-        <v>0.999768836062334</v>
+        <v>0.999770246598881</v>
       </c>
     </row>
     <row r="66">
@@ -2467,10 +2467,10 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>1.0115245321009</v>
+        <v>1.01154985871701</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0553511066474436</v>
+        <v>0.0553535557461636</v>
       </c>
       <c r="F66" t="e">
         <v>#NUM!</v>
@@ -2479,10 +2479,10 @@
         <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0.209402965506675</v>
+        <v>0.209856491800233</v>
       </c>
       <c r="I66" t="n">
-        <v>0.999999999793174</v>
+        <v>0.999999999788236</v>
       </c>
     </row>
     <row r="67">
@@ -2496,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0.996704004767765</v>
+        <v>0.99668220333723</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0454997734448836</v>
+        <v>0.0454996833483868</v>
       </c>
       <c r="F67" t="e">
         <v>#NUM!</v>
@@ -2508,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>-0.0723203043276856</v>
+        <v>-0.0727980160436812</v>
       </c>
       <c r="I67" t="n">
         <v>1</v>
